--- a/Library for Illegal Online Activity.xlsx
+++ b/Library for Illegal Online Activity.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="600" windowWidth="22695" windowHeight="13740"/>
+    <workbookView xWindow="630" yWindow="660" windowWidth="22695" windowHeight="13680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -904,7 +904,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -914,6 +914,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,7 +936,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -949,6 +955,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1255,7 +1264,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1487,7 +1496,7 @@
       <c r="C10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="8" t="s">
         <v>69</v>
       </c>
       <c r="E10" s="7" t="s">
@@ -1809,7 +1818,7 @@
       <c r="C24" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="8" t="s">
         <v>180</v>
       </c>
       <c r="E24" s="4"/>
@@ -2107,7 +2116,7 @@
       <c r="C40" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="8" t="s">
         <v>244</v>
       </c>
       <c r="E40" s="4"/>

--- a/Library for Illegal Online Activity.xlsx
+++ b/Library for Illegal Online Activity.xlsx
@@ -1264,7 +1264,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1448,7 +1448,7 @@
       <c r="C8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="8" t="s">
         <v>51</v>
       </c>
       <c r="E8" s="7" t="s">
